--- a/6.175/RISC-V labs/lab5/lab5 res.xlsx
+++ b/6.175/RISC-V labs/lab5/lab5 res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ComradeNie\Desktop\FPGA\BSV\MIT\6.175\RISC-V labs\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14234329-01E3-4B28-93E4-2B3D029D8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE0FD49-5BA1-4D4D-806D-46850CF66C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Inst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,10 @@
   </si>
   <si>
     <t>IPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +418,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -433,13 +433,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4168</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1033</v>
@@ -550,19 +550,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
